--- a/Raj Chudasama/2022-12-18/ALDFWTP Guest Services/IN HOUSE GUEST 12-17-22.xlsx
+++ b/Raj Chudasama/2022-12-18/ALDFWTP Guest Services/IN HOUSE GUEST 12-17-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="169">
   <si>
     <t>Room Num</t>
   </si>
@@ -190,10 +190,10 @@
     <t>515</t>
   </si>
   <si>
-    <t xml:space="preserve"> KG</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> QN</t>
+    <t>KG</t>
+  </si>
+  <si>
+    <t>QN</t>
   </si>
   <si>
     <t>KGR</t>
@@ -220,7 +220,7 @@
     <t>BLANCO, Thais</t>
   </si>
   <si>
-    <t>BORBON,AARON</t>
+    <t>BORBON, AARON</t>
   </si>
   <si>
     <t>BUFFANO, TOM</t>
@@ -232,10 +232,10 @@
     <t>Bonner, Craig</t>
   </si>
   <si>
-    <t>Boubel, Brian</t>
-  </si>
-  <si>
-    <t>COMPTON, Travelliance</t>
+    <t>Boubel,0</t>
+  </si>
+  <si>
+    <t>COMPTON,L</t>
   </si>
   <si>
     <t>CONDREAY,JARRAD</t>
@@ -289,7 +289,7 @@
     <t>MCLEAN,LUANNA</t>
   </si>
   <si>
-    <t>MERCADER, Travelliance</t>
+    <t>MERCADER,CAMILA</t>
   </si>
   <si>
     <t>MERK, GERHART</t>
@@ -319,7 +319,7 @@
     <t>TRISTAN,ASHLEY</t>
   </si>
   <si>
-    <t>TURNER, Travelliance</t>
+    <t>TURNER,R</t>
   </si>
   <si>
     <t>Thomas,Hayleigh</t>
@@ -370,22 +370,31 @@
     <t xml:space="preserve">Chick-Fi-A </t>
   </si>
   <si>
+    <t xml:space="preserve"> Travelliance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">\ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alliance :Aircraft Mai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christmas Holiday </t>
+  </si>
+  <si>
     <t xml:space="preserve">Travelliance </t>
   </si>
   <si>
-    <t xml:space="preserve">\ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alliance :Aircraft Mai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christmas Holiday </t>
-  </si>
-  <si>
     <t xml:space="preserve">Alliance Aviation </t>
   </si>
   <si>
-    <t xml:space="preserve">FI1335 </t>
+    <t xml:space="preserve"> FI1335 </t>
   </si>
   <si>
     <t xml:space="preserve">Business </t>
@@ -930,13 +939,13 @@
         <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -959,10 +968,10 @@
         <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -985,13 +994,13 @@
         <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1014,13 +1023,13 @@
         <v>111</v>
       </c>
       <c r="H5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1043,13 +1052,13 @@
         <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1075,13 +1084,13 @@
         <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1104,13 +1113,13 @@
         <v>111</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1133,13 +1142,13 @@
         <v>111</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I9" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1158,14 +1167,17 @@
       <c r="E10" t="s">
         <v>70</v>
       </c>
+      <c r="G10" t="s">
+        <v>120</v>
+      </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1188,13 +1200,13 @@
         <v>113</v>
       </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1213,11 +1225,14 @@
       <c r="E12" t="s">
         <v>72</v>
       </c>
+      <c r="G12" t="s">
+        <v>121</v>
+      </c>
       <c r="H12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1236,11 +1251,14 @@
       <c r="E13" t="s">
         <v>73</v>
       </c>
+      <c r="G13" t="s">
+        <v>118</v>
+      </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I13" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1263,13 +1281,13 @@
         <v>111</v>
       </c>
       <c r="H14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1292,13 +1310,13 @@
         <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1321,16 +1339,16 @@
         <v>112</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1353,13 +1371,13 @@
         <v>112</v>
       </c>
       <c r="H17" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1382,13 +1400,13 @@
         <v>111</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1411,13 +1429,13 @@
         <v>111</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J19" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1440,16 +1458,16 @@
         <v>114</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I20" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J20" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1472,13 +1490,13 @@
         <v>111</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1501,13 +1519,13 @@
         <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J22" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1530,10 +1548,10 @@
         <v>118</v>
       </c>
       <c r="H23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1556,13 +1574,13 @@
         <v>115</v>
       </c>
       <c r="G24" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H24" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1585,13 +1603,13 @@
         <v>113</v>
       </c>
       <c r="H25" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J25" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1614,13 +1632,13 @@
         <v>116</v>
       </c>
       <c r="H26" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J26" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1643,16 +1661,16 @@
         <v>111</v>
       </c>
       <c r="G27" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1671,11 +1689,14 @@
       <c r="E28" t="s">
         <v>88</v>
       </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1695,16 +1716,16 @@
         <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1727,13 +1748,13 @@
         <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J30" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1752,11 +1773,14 @@
       <c r="E31" t="s">
         <v>91</v>
       </c>
+      <c r="G31" t="s">
+        <v>118</v>
+      </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1779,10 +1803,10 @@
         <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1805,13 +1829,13 @@
         <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J33" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1834,10 +1858,10 @@
         <v>118</v>
       </c>
       <c r="H34" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I34" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1860,10 +1884,10 @@
         <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I35" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1886,13 +1910,13 @@
         <v>113</v>
       </c>
       <c r="H36" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I36" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1915,16 +1939,16 @@
         <v>113</v>
       </c>
       <c r="G37" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1947,13 +1971,13 @@
         <v>110</v>
       </c>
       <c r="H38" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J38" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1976,13 +2000,13 @@
         <v>110</v>
       </c>
       <c r="H39" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="J39" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2005,13 +2029,13 @@
         <v>116</v>
       </c>
       <c r="H40" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J40" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2030,11 +2054,14 @@
       <c r="E41" t="s">
         <v>101</v>
       </c>
+      <c r="G41" t="s">
+        <v>118</v>
+      </c>
       <c r="H41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2057,13 +2084,13 @@
         <v>111</v>
       </c>
       <c r="H42" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I42" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2082,14 +2109,17 @@
       <c r="E43" t="s">
         <v>103</v>
       </c>
+      <c r="G43" t="s">
+        <v>120</v>
+      </c>
       <c r="H43" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I43" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J43" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2112,13 +2142,13 @@
         <v>112</v>
       </c>
       <c r="H44" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J44" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2141,13 +2171,13 @@
         <v>111</v>
       </c>
       <c r="H45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J45" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2170,13 +2200,13 @@
         <v>111</v>
       </c>
       <c r="H46" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I46" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J46" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2199,13 +2229,13 @@
         <v>111</v>
       </c>
       <c r="H47" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="J47" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2228,16 +2258,16 @@
         <v>113</v>
       </c>
       <c r="G48" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I48" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="J48" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2256,11 +2286,14 @@
       <c r="E49" t="s">
         <v>109</v>
       </c>
+      <c r="G49" t="s">
+        <v>120</v>
+      </c>
       <c r="H49" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I49" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
